--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
   <si>
     <t>Conteudo</t>
   </si>
@@ -22,7 +22,7 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Set cauclus</t>
+    <t>Set calculus</t>
   </si>
   <si>
     <t>https://app.edukera.com/?lang=en&amp;paper_hash=B6C6E5E51725E7B264071393712847B1AF643A8C&amp;print=true&amp;mode=math&amp;s=eyJtb2RlX2Vucm9sbG1lbnQiOiJjb2RlX2Jhc2UiLCAidHJvcGlzbSI6ImZvcndhcmRfYmFja3dhcmQifQ%3D%3D</t>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>https://app.edukera.com/?lang=en&amp;paper_hash=D33620D5F14F4D30757F8A15B5F7F902839483B3&amp;print=true&amp;mode=math&amp;s=eyJtb2RlX2Vucm9sbG1lbnQiOiJjb2RlX2Jhc2UiLCAidHJvcGlzbSI6ImZvcndhcmRfYmFja3dhcmQifQ%3D%3D</t>
-  </si>
-  <si>
-    <t>Set calculus</t>
   </si>
   <si>
     <t>https://app.edukera.com/?lang=en&amp;paper_hash=6BA64D24CC2E5D530AC76F8F22C847CEE5F4F31A&amp;print=true&amp;mode=math&amp;s=eyJtb2RlX2Vucm9sbG1lbnQiOiJjb2RlX2Jhc2UiLCAidHJvcGlzbSI6ImZvcndhcmRfYmFja3dhcmQifQ%3D%3D</t>
@@ -593,7 +590,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -604,7 +601,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -615,7 +612,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -626,7 +623,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -637,7 +634,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -648,7 +645,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
@@ -659,7 +656,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
@@ -670,7 +667,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
@@ -681,7 +678,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2">
@@ -692,7 +689,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2">
@@ -703,7 +700,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2">
@@ -714,7 +711,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2">
@@ -725,7 +722,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2">
@@ -736,7 +733,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2">
@@ -747,7 +744,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2">
@@ -758,7 +755,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2">
@@ -769,7 +766,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2">
@@ -780,7 +777,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2">
@@ -791,7 +788,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2">
@@ -802,7 +799,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2">
@@ -813,7 +810,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2">
@@ -824,7 +821,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="2">
@@ -835,7 +832,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="2">
@@ -846,7 +843,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2">
@@ -857,7 +854,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2">
@@ -868,7 +865,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2">
@@ -880,172 +877,172 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
         <v>1.0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
         <v>2.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>3.0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2">
         <v>4.0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2">
         <v>5.0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
         <v>6.0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2">
         <v>7.0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2">
         <v>8.0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2">
         <v>9.0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2">
         <v>10.0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
         <v>11.0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2">
         <v>12.0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2">
         <v>13.0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B41" s="2">
         <v>14.0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2">
         <v>15.0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>40.0</v>
@@ -1056,607 +1053,607 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2">
         <v>41.0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2">
         <v>42.0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2">
         <v>43.0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2">
         <v>44.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2">
         <v>45.0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2">
         <v>46.0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2">
         <v>47.0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2">
         <v>48.0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B52" s="2">
         <v>49.0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2">
         <v>50.0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B54" s="2">
         <v>51.0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B55" s="2">
         <v>52.0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2">
         <v>53.0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2">
         <v>54.0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B58" s="2">
         <v>55.0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B59" s="2">
         <v>56.0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2">
         <v>57.0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2">
         <v>58.0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B62" s="2">
         <v>59.0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2">
         <v>60.0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B64" s="2">
         <v>61.0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B65" s="2">
         <v>62.0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B66" s="2">
         <v>63.0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2">
         <v>64.0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="5">
         <v>1.0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="5">
         <v>2.0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="5">
         <v>3.0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="5">
         <v>4.0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="5">
         <v>5.0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="5">
         <v>6.0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="5">
         <v>7.0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75" s="5">
         <v>8.0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="5">
         <v>9.0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="5">
         <v>10.0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B78" s="5">
         <v>11.0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="5">
         <v>12.0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="5">
         <v>13.0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" s="5">
         <v>14.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B82" s="5">
         <v>15.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="5">
         <v>16.0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" s="5">
         <v>17.0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B85" s="5">
         <v>18.0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B86" s="5">
         <v>19.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B87" s="5">
         <v>20.0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="5">
         <v>21.0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="5">
         <v>1.0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="5">
         <v>2.0</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="5">
         <v>3.0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="5">
         <v>4.0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="5">
         <v>5.0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94" s="5">
         <v>6.0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="5">
         <v>7.0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B96" s="5">
         <v>8.0</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="5">
         <v>10.0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="5">
         <v>12.0</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
